--- a/natmiOut/OldD7/LR-pairs_lrc2p/Fndc5-Itgb5.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Fndc5-Itgb5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Itgb5</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.88216498464779</v>
+        <v>0.05565899999999999</v>
       </c>
       <c r="H2">
-        <v>1.88216498464779</v>
+        <v>0.166977</v>
       </c>
       <c r="I2">
-        <v>0.6024791128466498</v>
+        <v>0.01431489546586528</v>
       </c>
       <c r="J2">
-        <v>0.6024791128466498</v>
+        <v>0.01431489546586528</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.86031452708108</v>
+        <v>9.460162333333333</v>
       </c>
       <c r="N2">
-        <v>8.86031452708108</v>
+        <v>28.380487</v>
       </c>
       <c r="O2">
-        <v>0.08321300777838372</v>
+        <v>0.08197024919772995</v>
       </c>
       <c r="P2">
-        <v>0.08321300777838372</v>
+        <v>0.08197024919772995</v>
       </c>
       <c r="Q2">
-        <v>16.67657375583815</v>
+        <v>0.5265431753109999</v>
       </c>
       <c r="R2">
-        <v>16.67657375583815</v>
+        <v>4.738888577798999</v>
       </c>
       <c r="S2">
-        <v>0.05013409910362199</v>
+        <v>0.001173395548576432</v>
       </c>
       <c r="T2">
-        <v>0.05013409910362199</v>
+        <v>0.001173395548576432</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>1.88216498464779</v>
+        <v>0.05565899999999999</v>
       </c>
       <c r="H3">
-        <v>1.88216498464779</v>
+        <v>0.166977</v>
       </c>
       <c r="I3">
-        <v>0.6024791128466498</v>
+        <v>0.01431489546586528</v>
       </c>
       <c r="J3">
-        <v>0.6024791128466498</v>
+        <v>0.01431489546586528</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>46.0976596177799</v>
+        <v>46.18256633333333</v>
       </c>
       <c r="N3">
-        <v>46.0976596177799</v>
+        <v>138.547699</v>
       </c>
       <c r="O3">
-        <v>0.4329332662644541</v>
+        <v>0.4001618933742075</v>
       </c>
       <c r="P3">
-        <v>0.4329332662644541</v>
+        <v>0.4001618933742075</v>
       </c>
       <c r="Q3">
-        <v>86.76340080679775</v>
+        <v>2.570475459547</v>
       </c>
       <c r="R3">
-        <v>86.76340080679775</v>
+        <v>23.134279135923</v>
       </c>
       <c r="S3">
-        <v>0.2608332501808107</v>
+        <v>0.005728275673074511</v>
       </c>
       <c r="T3">
-        <v>0.2608332501808107</v>
+        <v>0.005728275673074511</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>1.88216498464779</v>
+        <v>0.05565899999999999</v>
       </c>
       <c r="H4">
-        <v>1.88216498464779</v>
+        <v>0.166977</v>
       </c>
       <c r="I4">
-        <v>0.6024791128466498</v>
+        <v>0.01431489546586528</v>
       </c>
       <c r="J4">
-        <v>0.6024791128466498</v>
+        <v>0.01431489546586528</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>45.6561722693769</v>
+        <v>51.40166966666666</v>
       </c>
       <c r="N4">
-        <v>45.6561722693769</v>
+        <v>154.205009</v>
       </c>
       <c r="O4">
-        <v>0.4287869698723305</v>
+        <v>0.4453842886934318</v>
       </c>
       <c r="P4">
-        <v>0.4287869698723305</v>
+        <v>0.4453842886934319</v>
       </c>
       <c r="Q4">
-        <v>85.93244877846863</v>
+        <v>2.860965531977</v>
       </c>
       <c r="R4">
-        <v>85.93244877846863</v>
+        <v>25.748689787793</v>
       </c>
       <c r="S4">
-        <v>0.2583351932088848</v>
+        <v>0.006375629534785242</v>
       </c>
       <c r="T4">
-        <v>0.2583351932088848</v>
+        <v>0.006375629534785243</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>1.88216498464779</v>
+        <v>0.05565899999999999</v>
       </c>
       <c r="H5">
-        <v>1.88216498464779</v>
+        <v>0.166977</v>
       </c>
       <c r="I5">
-        <v>0.6024791128466498</v>
+        <v>0.01431489546586528</v>
       </c>
       <c r="J5">
-        <v>0.6024791128466498</v>
+        <v>0.01431489546586528</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.8633715079388</v>
+        <v>8.365307333333334</v>
       </c>
       <c r="N5">
-        <v>5.8633715079388</v>
+        <v>25.095922</v>
       </c>
       <c r="O5">
-        <v>0.05506675608483171</v>
+        <v>0.07248356873463072</v>
       </c>
       <c r="P5">
-        <v>0.05506675608483171</v>
+        <v>0.07248356873463073</v>
       </c>
       <c r="Q5">
-        <v>11.03583254422392</v>
+        <v>0.465604640866</v>
       </c>
       <c r="R5">
-        <v>11.03583254422392</v>
+        <v>4.190441767794</v>
       </c>
       <c r="S5">
-        <v>0.03317657035333226</v>
+        <v>0.0010375947094291</v>
       </c>
       <c r="T5">
-        <v>0.03317657035333226</v>
+        <v>0.0010375947094291</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.322741617094935</v>
+        <v>1.907196</v>
       </c>
       <c r="H6">
-        <v>0.322741617094935</v>
+        <v>5.721588000000001</v>
       </c>
       <c r="I6">
-        <v>0.1033092660484469</v>
+        <v>0.4905102745812252</v>
       </c>
       <c r="J6">
-        <v>0.1033092660484469</v>
+        <v>0.4905102745812252</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.86031452708108</v>
+        <v>9.460162333333333</v>
       </c>
       <c r="N6">
-        <v>8.86031452708108</v>
+        <v>28.380487</v>
       </c>
       <c r="O6">
-        <v>0.08321300777838372</v>
+        <v>0.08197024919772995</v>
       </c>
       <c r="P6">
-        <v>0.08321300777838372</v>
+        <v>0.08197024919772995</v>
       </c>
       <c r="Q6">
-        <v>2.859592238439892</v>
+        <v>18.042383761484</v>
       </c>
       <c r="R6">
-        <v>2.859592238439892</v>
+        <v>162.381453853356</v>
       </c>
       <c r="S6">
-        <v>0.008596674759268529</v>
+        <v>0.04020724944146997</v>
       </c>
       <c r="T6">
-        <v>0.008596674759268529</v>
+        <v>0.04020724944146997</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.322741617094935</v>
+        <v>1.907196</v>
       </c>
       <c r="H7">
-        <v>0.322741617094935</v>
+        <v>5.721588000000001</v>
       </c>
       <c r="I7">
-        <v>0.1033092660484469</v>
+        <v>0.4905102745812252</v>
       </c>
       <c r="J7">
-        <v>0.1033092660484469</v>
+        <v>0.4905102745812252</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>46.0976596177799</v>
+        <v>46.18256633333333</v>
       </c>
       <c r="N7">
-        <v>46.0976596177799</v>
+        <v>138.547699</v>
       </c>
       <c r="O7">
-        <v>0.4329332662644541</v>
+        <v>0.4001618933742075</v>
       </c>
       <c r="P7">
-        <v>0.4329332662644541</v>
+        <v>0.4001618933742075</v>
       </c>
       <c r="Q7">
-        <v>14.87763320933417</v>
+        <v>88.079205780668</v>
       </c>
       <c r="R7">
-        <v>14.87763320933417</v>
+        <v>792.712852026012</v>
       </c>
       <c r="S7">
-        <v>0.04472601798573761</v>
+        <v>0.1962835201959255</v>
       </c>
       <c r="T7">
-        <v>0.04472601798573761</v>
+        <v>0.1962835201959255</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.322741617094935</v>
+        <v>1.907196</v>
       </c>
       <c r="H8">
-        <v>0.322741617094935</v>
+        <v>5.721588000000001</v>
       </c>
       <c r="I8">
-        <v>0.1033092660484469</v>
+        <v>0.4905102745812252</v>
       </c>
       <c r="J8">
-        <v>0.1033092660484469</v>
+        <v>0.4905102745812252</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>45.6561722693769</v>
+        <v>51.40166966666666</v>
       </c>
       <c r="N8">
-        <v>45.6561722693769</v>
+        <v>154.205009</v>
       </c>
       <c r="O8">
-        <v>0.4287869698723305</v>
+        <v>0.4453842886934318</v>
       </c>
       <c r="P8">
-        <v>0.4287869698723305</v>
+        <v>0.4453842886934319</v>
       </c>
       <c r="Q8">
-        <v>14.73514686858363</v>
+        <v>98.033058781588</v>
       </c>
       <c r="R8">
-        <v>14.73514686858363</v>
+        <v>882.297529034292</v>
       </c>
       <c r="S8">
-        <v>0.044297667148648</v>
+        <v>0.2184655697411789</v>
       </c>
       <c r="T8">
-        <v>0.044297667148648</v>
+        <v>0.2184655697411789</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.322741617094935</v>
+        <v>1.907196</v>
       </c>
       <c r="H9">
-        <v>0.322741617094935</v>
+        <v>5.721588000000001</v>
       </c>
       <c r="I9">
-        <v>0.1033092660484469</v>
+        <v>0.4905102745812252</v>
       </c>
       <c r="J9">
-        <v>0.1033092660484469</v>
+        <v>0.4905102745812252</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.8633715079388</v>
+        <v>8.365307333333334</v>
       </c>
       <c r="N9">
-        <v>5.8633715079388</v>
+        <v>25.095922</v>
       </c>
       <c r="O9">
-        <v>0.05506675608483171</v>
+        <v>0.07248356873463072</v>
       </c>
       <c r="P9">
-        <v>0.05506675608483171</v>
+        <v>0.07248356873463073</v>
       </c>
       <c r="Q9">
-        <v>1.892354002100536</v>
+        <v>15.954280684904</v>
       </c>
       <c r="R9">
-        <v>1.892354002100536</v>
+        <v>143.588526164136</v>
       </c>
       <c r="S9">
-        <v>0.005688906154792814</v>
+        <v>0.03555393520265082</v>
       </c>
       <c r="T9">
-        <v>0.005688906154792814</v>
+        <v>0.03555393520265083</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.919126986334313</v>
+        <v>0.3444803333333333</v>
       </c>
       <c r="H10">
-        <v>0.919126986334313</v>
+        <v>1.033441</v>
       </c>
       <c r="I10">
-        <v>0.2942116211049033</v>
+        <v>0.08859663238134165</v>
       </c>
       <c r="J10">
-        <v>0.2942116211049033</v>
+        <v>0.08859663238134165</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.86031452708108</v>
+        <v>9.460162333333333</v>
       </c>
       <c r="N10">
-        <v>8.86031452708108</v>
+        <v>28.380487</v>
       </c>
       <c r="O10">
-        <v>0.08321300777838372</v>
+        <v>0.08197024919772995</v>
       </c>
       <c r="P10">
-        <v>0.08321300777838372</v>
+        <v>0.08197024919772995</v>
       </c>
       <c r="Q10">
-        <v>8.143754189250167</v>
+        <v>3.25883987397411</v>
       </c>
       <c r="R10">
-        <v>8.143754189250167</v>
+        <v>29.32955886576699</v>
       </c>
       <c r="S10">
-        <v>0.02448223391549321</v>
+        <v>0.007262288034378245</v>
       </c>
       <c r="T10">
-        <v>0.02448223391549321</v>
+        <v>0.007262288034378245</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,61 +1080,61 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.919126986334313</v>
+        <v>0.3444803333333333</v>
       </c>
       <c r="H11">
-        <v>0.919126986334313</v>
+        <v>1.033441</v>
       </c>
       <c r="I11">
-        <v>0.2942116211049033</v>
+        <v>0.08859663238134165</v>
       </c>
       <c r="J11">
-        <v>0.2942116211049033</v>
+        <v>0.08859663238134165</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>46.0976596177799</v>
+        <v>46.18256633333333</v>
       </c>
       <c r="N11">
-        <v>46.0976596177799</v>
+        <v>138.547699</v>
       </c>
       <c r="O11">
-        <v>0.4329332662644541</v>
+        <v>0.4001618933742075</v>
       </c>
       <c r="P11">
-        <v>0.4329332662644541</v>
+        <v>0.4001618933742075</v>
       </c>
       <c r="Q11">
-        <v>42.369602961555</v>
+        <v>15.90898584469544</v>
       </c>
       <c r="R11">
-        <v>42.369602961555</v>
+        <v>143.180872602259</v>
       </c>
       <c r="S11">
-        <v>0.1273739980979058</v>
+        <v>0.0354529961602963</v>
       </c>
       <c r="T11">
-        <v>0.1273739980979058</v>
+        <v>0.0354529961602963</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.919126986334313</v>
+        <v>0.3444803333333333</v>
       </c>
       <c r="H12">
-        <v>0.919126986334313</v>
+        <v>1.033441</v>
       </c>
       <c r="I12">
-        <v>0.2942116211049033</v>
+        <v>0.08859663238134165</v>
       </c>
       <c r="J12">
-        <v>0.2942116211049033</v>
+        <v>0.08859663238134165</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>45.6561722693769</v>
+        <v>51.40166966666666</v>
       </c>
       <c r="N12">
-        <v>45.6561722693769</v>
+        <v>154.205009</v>
       </c>
       <c r="O12">
-        <v>0.4287869698723305</v>
+        <v>0.4453842886934318</v>
       </c>
       <c r="P12">
-        <v>0.4287869698723305</v>
+        <v>0.4453842886934319</v>
       </c>
       <c r="Q12">
-        <v>41.96382002551263</v>
+        <v>17.70686430066322</v>
       </c>
       <c r="R12">
-        <v>41.96382002551263</v>
+        <v>159.361778705969</v>
       </c>
       <c r="S12">
-        <v>0.1261541095147977</v>
+        <v>0.03945954809379732</v>
       </c>
       <c r="T12">
-        <v>0.1261541095147977</v>
+        <v>0.03945954809379732</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.3444803333333333</v>
+      </c>
+      <c r="H13">
+        <v>1.033441</v>
+      </c>
+      <c r="I13">
+        <v>0.08859663238134165</v>
+      </c>
+      <c r="J13">
+        <v>0.08859663238134165</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>8.365307333333334</v>
+      </c>
+      <c r="N13">
+        <v>25.095922</v>
+      </c>
+      <c r="O13">
+        <v>0.07248356873463072</v>
+      </c>
+      <c r="P13">
+        <v>0.07248356873463073</v>
+      </c>
+      <c r="Q13">
+        <v>2.881683858622444</v>
+      </c>
+      <c r="R13">
+        <v>25.935154727602</v>
+      </c>
+      <c r="S13">
+        <v>0.006421800092869787</v>
+      </c>
+      <c r="T13">
+        <v>0.006421800092869788</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.580852333333333</v>
+      </c>
+      <c r="H14">
+        <v>4.742557</v>
+      </c>
+      <c r="I14">
+        <v>0.4065781975715678</v>
+      </c>
+      <c r="J14">
+        <v>0.4065781975715678</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>9.460162333333333</v>
+      </c>
+      <c r="N14">
+        <v>28.380487</v>
+      </c>
+      <c r="O14">
+        <v>0.08197024919772995</v>
+      </c>
+      <c r="P14">
+        <v>0.08197024919772995</v>
+      </c>
+      <c r="Q14">
+        <v>14.95511969836211</v>
+      </c>
+      <c r="R14">
+        <v>134.596077285259</v>
+      </c>
+      <c r="S14">
+        <v>0.03332731617330529</v>
+      </c>
+      <c r="T14">
+        <v>0.03332731617330529</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.580852333333333</v>
+      </c>
+      <c r="H15">
+        <v>4.742557</v>
+      </c>
+      <c r="I15">
+        <v>0.4065781975715678</v>
+      </c>
+      <c r="J15">
+        <v>0.4065781975715678</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>46.18256633333333</v>
+      </c>
+      <c r="N15">
+        <v>138.547699</v>
+      </c>
+      <c r="O15">
+        <v>0.4001618933742075</v>
+      </c>
+      <c r="P15">
+        <v>0.4001618933742075</v>
+      </c>
+      <c r="Q15">
+        <v>73.00781774737145</v>
+      </c>
+      <c r="R15">
+        <v>657.070359726343</v>
+      </c>
+      <c r="S15">
+        <v>0.1626971013449112</v>
+      </c>
+      <c r="T15">
+        <v>0.1626971013449112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.919126986334313</v>
-      </c>
-      <c r="H13">
-        <v>0.919126986334313</v>
-      </c>
-      <c r="I13">
-        <v>0.2942116211049033</v>
-      </c>
-      <c r="J13">
-        <v>0.2942116211049033</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>5.8633715079388</v>
-      </c>
-      <c r="N13">
-        <v>5.8633715079388</v>
-      </c>
-      <c r="O13">
-        <v>0.05506675608483171</v>
-      </c>
-      <c r="P13">
-        <v>0.05506675608483171</v>
-      </c>
-      <c r="Q13">
-        <v>5.389182983850266</v>
-      </c>
-      <c r="R13">
-        <v>5.389182983850266</v>
-      </c>
-      <c r="S13">
-        <v>0.01620127957670664</v>
-      </c>
-      <c r="T13">
-        <v>0.01620127957670664</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.580852333333333</v>
+      </c>
+      <c r="H16">
+        <v>4.742557</v>
+      </c>
+      <c r="I16">
+        <v>0.4065781975715678</v>
+      </c>
+      <c r="J16">
+        <v>0.4065781975715678</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>51.40166966666666</v>
+      </c>
+      <c r="N16">
+        <v>154.205009</v>
+      </c>
+      <c r="O16">
+        <v>0.4453842886934318</v>
+      </c>
+      <c r="P16">
+        <v>0.4453842886934319</v>
+      </c>
+      <c r="Q16">
+        <v>81.25844942977922</v>
+      </c>
+      <c r="R16">
+        <v>731.3260448680129</v>
+      </c>
+      <c r="S16">
+        <v>0.1810835413236703</v>
+      </c>
+      <c r="T16">
+        <v>0.1810835413236703</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.580852333333333</v>
+      </c>
+      <c r="H17">
+        <v>4.742557</v>
+      </c>
+      <c r="I17">
+        <v>0.4065781975715678</v>
+      </c>
+      <c r="J17">
+        <v>0.4065781975715678</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>8.365307333333334</v>
+      </c>
+      <c r="N17">
+        <v>25.095922</v>
+      </c>
+      <c r="O17">
+        <v>0.07248356873463072</v>
+      </c>
+      <c r="P17">
+        <v>0.07248356873463073</v>
+      </c>
+      <c r="Q17">
+        <v>13.22431561695045</v>
+      </c>
+      <c r="R17">
+        <v>119.018840552554</v>
+      </c>
+      <c r="S17">
+        <v>0.029470238729681</v>
+      </c>
+      <c r="T17">
+        <v>0.02947023872968101</v>
       </c>
     </row>
   </sheetData>
